--- a/www/IndicatorsPerCountry/Denmark_GDPperCapita_TerritorialRef_1946_2012_CCode_208.xlsx
+++ b/www/IndicatorsPerCountry/Denmark_GDPperCapita_TerritorialRef_1946_2012_CCode_208.xlsx
@@ -633,13 +633,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Denmark_GDPperCapita_TerritorialRef_1946_2012_CCode_208.xlsx
+++ b/www/IndicatorsPerCountry/Denmark_GDPperCapita_TerritorialRef_1946_2012_CCode_208.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="215">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,574 +36,592 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>1320</t>
-  </si>
-  <si>
-    <t>1327</t>
-  </si>
-  <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>1328</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>1324</t>
-  </si>
-  <si>
-    <t>1349</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>1330</t>
-  </si>
-  <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>1336</t>
-  </si>
-  <si>
-    <t>1397</t>
-  </si>
-  <si>
-    <t>1377</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>1392</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>1414</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>1476</t>
-  </si>
-  <si>
-    <t>1527</t>
-  </si>
-  <si>
-    <t>1551</t>
-  </si>
-  <si>
-    <t>1569</t>
-  </si>
-  <si>
-    <t>1547</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1691</t>
-  </si>
-  <si>
-    <t>1767</t>
-  </si>
-  <si>
-    <t>1662</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1692</t>
-  </si>
-  <si>
-    <t>1681</t>
-  </si>
-  <si>
-    <t>1843</t>
-  </si>
-  <si>
-    <t>1716</t>
-  </si>
-  <si>
-    <t>1722</t>
-  </si>
-  <si>
-    <t>1688</t>
-  </si>
-  <si>
-    <t>1778</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>1747</t>
-  </si>
-  <si>
-    <t>1779</t>
-  </si>
-  <si>
-    <t>1869</t>
-  </si>
-  <si>
-    <t>1833</t>
-  </si>
-  <si>
-    <t>1875</t>
-  </si>
-  <si>
-    <t>1859</t>
-  </si>
-  <si>
-    <t>1840</t>
-  </si>
-  <si>
-    <t>1853</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>2087</t>
-  </si>
-  <si>
-    <t>2057</t>
-  </si>
-  <si>
-    <t>2096</t>
-  </si>
-  <si>
-    <t>2112</t>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>2117</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2150</t>
+  </si>
+  <si>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2158</t>
   </si>
   <si>
     <t>2130</t>
   </si>
   <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2149</t>
-  </si>
-  <si>
-    <t>2181</t>
-  </si>
-  <si>
-    <t>2183</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>2299</t>
-  </si>
-  <si>
-    <t>2285</t>
-  </si>
-  <si>
-    <t>2274</t>
-  </si>
-  <si>
-    <t>2336</t>
-  </si>
-  <si>
-    <t>2395</t>
-  </si>
-  <si>
-    <t>2389</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>2523</t>
-  </si>
-  <si>
-    <t>2555</t>
-  </si>
-  <si>
-    <t>2598</t>
-  </si>
-  <si>
-    <t>2629</t>
-  </si>
-  <si>
-    <t>2657</t>
-  </si>
-  <si>
-    <t>2770</t>
+    <t>2227</t>
+  </si>
+  <si>
+    <t>2195</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2254</t>
+  </si>
+  <si>
+    <t>2243</t>
+  </si>
+  <si>
+    <t>2353</t>
+  </si>
+  <si>
+    <t>2434</t>
+  </si>
+  <si>
+    <t>2472</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2466</t>
+  </si>
+  <si>
+    <t>2570</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>2649</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>2697</t>
+  </si>
+  <si>
+    <t>2679</t>
+  </si>
+  <si>
+    <t>2938</t>
+  </si>
+  <si>
+    <t>2735</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2691</t>
+  </si>
+  <si>
+    <t>2834</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>2785</t>
   </si>
   <si>
     <t>2836</t>
   </si>
   <si>
-    <t>2863</t>
-  </si>
-  <si>
-    <t>2870</t>
-  </si>
-  <si>
-    <t>2952</t>
-  </si>
-  <si>
-    <t>3017</t>
-  </si>
-  <si>
-    <t>3104</t>
-  </si>
-  <si>
-    <t>3141</t>
-  </si>
-  <si>
-    <t>3290</t>
-  </si>
-  <si>
-    <t>3326</t>
-  </si>
-  <si>
-    <t>3346</t>
-  </si>
-  <si>
-    <t>3402</t>
-  </si>
-  <si>
-    <t>3486</t>
-  </si>
-  <si>
-    <t>3552</t>
-  </si>
-  <si>
-    <t>3643</t>
-  </si>
-  <si>
-    <t>3705</t>
-  </si>
-  <si>
-    <t>3857</t>
-  </si>
-  <si>
-    <t>3812</t>
-  </si>
-  <si>
-    <t>3912</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>3778</t>
-  </si>
-  <si>
-    <t>3891</t>
-  </si>
-  <si>
-    <t>3617</t>
-  </si>
-  <si>
-    <t>3459</t>
-  </si>
-  <si>
-    <t>3860</t>
-  </si>
-  <si>
-    <t>3992</t>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>2922</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>2963</t>
+  </si>
+  <si>
+    <t>2933</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>3092</t>
+  </si>
+  <si>
+    <t>3193</t>
+  </si>
+  <si>
+    <t>3177</t>
+  </si>
+  <si>
+    <t>3327</t>
+  </si>
+  <si>
+    <t>3279</t>
+  </si>
+  <si>
+    <t>3341</t>
+  </si>
+  <si>
+    <t>3366</t>
+  </si>
+  <si>
+    <t>3395</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>3425</t>
+  </si>
+  <si>
+    <t>3476</t>
+  </si>
+  <si>
+    <t>3480</t>
+  </si>
+  <si>
+    <t>3571</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>3642</t>
+  </si>
+  <si>
+    <t>3625</t>
+  </si>
+  <si>
+    <t>3724</t>
+  </si>
+  <si>
+    <t>3818</t>
+  </si>
+  <si>
+    <t>3808</t>
   </si>
   <si>
     <t>3826</t>
   </si>
   <si>
-    <t>4166</t>
-  </si>
-  <si>
-    <t>4559</t>
-  </si>
-  <si>
-    <t>4528</t>
-  </si>
-  <si>
-    <t>4378</t>
-  </si>
-  <si>
-    <t>4598</t>
-  </si>
-  <si>
-    <t>4658</t>
-  </si>
-  <si>
-    <t>4785</t>
-  </si>
-  <si>
-    <t>5075</t>
-  </si>
-  <si>
-    <t>5341</t>
-  </si>
-  <si>
-    <t>5359</t>
-  </si>
-  <si>
-    <t>5169</t>
-  </si>
-  <si>
-    <t>5291</t>
-  </si>
-  <si>
-    <t>5402</t>
-  </si>
-  <si>
-    <t>5480</t>
-  </si>
-  <si>
-    <t>5575</t>
-  </si>
-  <si>
-    <t>5668</t>
-  </si>
-  <si>
-    <t>5762</t>
-  </si>
-  <si>
-    <t>5993</t>
-  </si>
-  <si>
-    <t>5116</t>
-  </si>
-  <si>
-    <t>4574</t>
-  </si>
-  <si>
-    <t>4629</t>
-  </si>
-  <si>
-    <t>5080</t>
-  </si>
-  <si>
-    <t>5543</t>
-  </si>
-  <si>
-    <t>5066</t>
-  </si>
-  <si>
-    <t>5777</t>
-  </si>
-  <si>
-    <t>6035</t>
-  </si>
-  <si>
-    <t>6133</t>
-  </si>
-  <si>
-    <t>6494</t>
-  </si>
-  <si>
-    <t>6943</t>
-  </si>
-  <si>
-    <t>6936</t>
-  </si>
-  <si>
-    <t>6955</t>
-  </si>
-  <si>
-    <t>7292</t>
-  </si>
-  <si>
-    <t>7371</t>
-  </si>
-  <si>
-    <t>7395</t>
-  </si>
-  <si>
-    <t>7439</t>
-  </si>
-  <si>
-    <t>7965</t>
-  </si>
-  <si>
-    <t>8095</t>
-  </si>
-  <si>
-    <t>8637</t>
-  </si>
-  <si>
-    <t>8812</t>
-  </si>
-  <si>
-    <t>9312</t>
-  </si>
-  <si>
-    <t>9747</t>
-  </si>
-  <si>
-    <t>9732</t>
-  </si>
-  <si>
-    <t>10560</t>
-  </si>
-  <si>
-    <t>10953</t>
-  </si>
-  <si>
-    <t>11160</t>
-  </si>
-  <si>
-    <t>11437</t>
-  </si>
-  <si>
-    <t>11837</t>
-  </si>
-  <si>
-    <t>12531</t>
-  </si>
-  <si>
-    <t>12686</t>
-  </si>
-  <si>
-    <t>12934</t>
-  </si>
-  <si>
-    <t>13538</t>
-  </si>
-  <si>
-    <t>13945</t>
-  </si>
-  <si>
-    <t>13751</t>
-  </si>
-  <si>
-    <t>13621</t>
-  </si>
-  <si>
-    <t>14466</t>
-  </si>
-  <si>
-    <t>14655</t>
-  </si>
-  <si>
-    <t>14826</t>
-  </si>
-  <si>
-    <t>15313</t>
-  </si>
-  <si>
-    <t>15227</t>
-  </si>
-  <si>
-    <t>15096</t>
-  </si>
-  <si>
-    <t>15563</t>
-  </si>
-  <si>
-    <t>15966</t>
-  </si>
-  <si>
-    <t>16676</t>
-  </si>
-  <si>
-    <t>17384</t>
-  </si>
-  <si>
-    <t>17993</t>
-  </si>
-  <si>
-    <t>18023</t>
-  </si>
-  <si>
-    <t>18224</t>
-  </si>
-  <si>
-    <t>18261</t>
-  </si>
-  <si>
-    <t>18452.426108</t>
-  </si>
-  <si>
-    <t>18643.7901966</t>
-  </si>
-  <si>
-    <t>18949.4449268</t>
-  </si>
-  <si>
-    <t>18870.4337955</t>
-  </si>
-  <si>
-    <t>19847.2664054</t>
-  </si>
-  <si>
-    <t>20350.0299086</t>
-  </si>
-  <si>
-    <t>20809.6608185</t>
-  </si>
-  <si>
-    <t>21387.5381838</t>
-  </si>
-  <si>
-    <t>21770.8650385</t>
-  </si>
-  <si>
-    <t>22255.4373671</t>
-  </si>
-  <si>
-    <t>22966.1184617</t>
-  </si>
-  <si>
-    <t>23048.4910835</t>
-  </si>
-  <si>
-    <t>23074.6070936</t>
-  </si>
-  <si>
-    <t>23079.6549589</t>
-  </si>
-  <si>
-    <t>23525.7186347</t>
-  </si>
-  <si>
-    <t>24016.8859092</t>
-  </si>
-  <si>
-    <t>24748.7258424</t>
-  </si>
-  <si>
-    <t>25060.2876308</t>
-  </si>
-  <si>
-    <t>24788.599965</t>
-  </si>
-  <si>
-    <t>23275.4890001</t>
-  </si>
-  <si>
-    <t>23512.6314912</t>
+    <t>4022</t>
+  </si>
+  <si>
+    <t>4073</t>
+  </si>
+  <si>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>4191</t>
+  </si>
+  <si>
+    <t>4235</t>
+  </si>
+  <si>
+    <t>4415</t>
+  </si>
+  <si>
+    <t>4521</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>4575</t>
+  </si>
+  <si>
+    <t>4705</t>
+  </si>
+  <si>
+    <t>4809</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>5007</t>
+  </si>
+  <si>
+    <t>5244</t>
+  </si>
+  <si>
+    <t>5302</t>
+  </si>
+  <si>
+    <t>5333</t>
+  </si>
+  <si>
+    <t>5423</t>
+  </si>
+  <si>
+    <t>5557</t>
+  </si>
+  <si>
+    <t>5662</t>
+  </si>
+  <si>
+    <t>5807</t>
+  </si>
+  <si>
+    <t>5906</t>
+  </si>
+  <si>
+    <t>6148</t>
+  </si>
+  <si>
+    <t>6076</t>
+  </si>
+  <si>
+    <t>6236</t>
+  </si>
+  <si>
+    <t>6551</t>
+  </si>
+  <si>
+    <t>6022</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>5765</t>
+  </si>
+  <si>
+    <t>5514</t>
+  </si>
+  <si>
+    <t>6153</t>
+  </si>
+  <si>
+    <t>6363</t>
+  </si>
+  <si>
+    <t>6099</t>
+  </si>
+  <si>
+    <t>6641</t>
+  </si>
+  <si>
+    <t>7267</t>
+  </si>
+  <si>
+    <t>7218</t>
+  </si>
+  <si>
+    <t>6978</t>
+  </si>
+  <si>
+    <t>7329</t>
+  </si>
+  <si>
+    <t>7425</t>
+  </si>
+  <si>
+    <t>7627</t>
+  </si>
+  <si>
+    <t>8089</t>
+  </si>
+  <si>
+    <t>8513</t>
+  </si>
+  <si>
+    <t>8542</t>
+  </si>
+  <si>
+    <t>8239</t>
+  </si>
+  <si>
+    <t>8434</t>
+  </si>
+  <si>
+    <t>8611</t>
+  </si>
+  <si>
+    <t>8735</t>
+  </si>
+  <si>
+    <t>8886</t>
+  </si>
+  <si>
+    <t>9035</t>
+  </si>
+  <si>
+    <t>9185</t>
+  </si>
+  <si>
+    <t>9553</t>
+  </si>
+  <si>
+    <t>8155</t>
+  </si>
+  <si>
+    <t>7291</t>
+  </si>
+  <si>
+    <t>7379</t>
+  </si>
+  <si>
+    <t>8097</t>
+  </si>
+  <si>
+    <t>8835</t>
+  </si>
+  <si>
+    <t>8075</t>
+  </si>
+  <si>
+    <t>9208</t>
+  </si>
+  <si>
+    <t>9620</t>
+  </si>
+  <si>
+    <t>9776</t>
+  </si>
+  <si>
+    <t>10351</t>
+  </si>
+  <si>
+    <t>11067</t>
+  </si>
+  <si>
+    <t>11056</t>
+  </si>
+  <si>
+    <t>11086</t>
+  </si>
+  <si>
+    <t>11623</t>
+  </si>
+  <si>
+    <t>11749</t>
+  </si>
+  <si>
+    <t>11788</t>
+  </si>
+  <si>
+    <t>11858</t>
+  </si>
+  <si>
+    <t>12696</t>
+  </si>
+  <si>
+    <t>12903</t>
+  </si>
+  <si>
+    <t>13767</t>
+  </si>
+  <si>
+    <t>14046</t>
+  </si>
+  <si>
+    <t>14843</t>
+  </si>
+  <si>
+    <t>15537</t>
+  </si>
+  <si>
+    <t>15513</t>
+  </si>
+  <si>
+    <t>16832</t>
+  </si>
+  <si>
+    <t>17459</t>
+  </si>
+  <si>
+    <t>17789</t>
+  </si>
+  <si>
+    <t>18230</t>
+  </si>
+  <si>
+    <t>18868</t>
+  </si>
+  <si>
+    <t>19974</t>
+  </si>
+  <si>
+    <t>20221</t>
+  </si>
+  <si>
+    <t>20617</t>
+  </si>
+  <si>
+    <t>21579</t>
+  </si>
+  <si>
+    <t>22228</t>
+  </si>
+  <si>
+    <t>21919</t>
+  </si>
+  <si>
+    <t>21712</t>
+  </si>
+  <si>
+    <t>23059</t>
+  </si>
+  <si>
+    <t>23360</t>
+  </si>
+  <si>
+    <t>23632</t>
+  </si>
+  <si>
+    <t>24409</t>
+  </si>
+  <si>
+    <t>24272</t>
+  </si>
+  <si>
+    <t>24063</t>
+  </si>
+  <si>
+    <t>24807</t>
+  </si>
+  <si>
+    <t>25450</t>
+  </si>
+  <si>
+    <t>26581</t>
+  </si>
+  <si>
+    <t>27710</t>
+  </si>
+  <si>
+    <t>28681</t>
+  </si>
+  <si>
+    <t>28728</t>
+  </si>
+  <si>
+    <t>29049</t>
+  </si>
+  <si>
+    <t>29108</t>
+  </si>
+  <si>
+    <t>29412</t>
+  </si>
+  <si>
+    <t>29915.4476167737</t>
+  </si>
+  <si>
+    <t>30573.5733215054</t>
+  </si>
+  <si>
+    <t>30649.5379873869</t>
+  </si>
+  <si>
+    <t>32359.2962361468</t>
+  </si>
+  <si>
+    <t>33356.1413655756</t>
+  </si>
+  <si>
+    <t>34325.4425056305</t>
+  </si>
+  <si>
+    <t>35499.0633285501</t>
+  </si>
+  <si>
+    <t>36361.2294471395</t>
+  </si>
+  <si>
+    <t>37523.4241694142</t>
+  </si>
+  <si>
+    <t>39021.1775521356</t>
+  </si>
+  <si>
+    <t>39425.8652231536</t>
+  </si>
+  <si>
+    <t>39709.3692887464</t>
+  </si>
+  <si>
+    <t>39983.1433535389</t>
+  </si>
+  <si>
+    <t>41178.562625218</t>
+  </si>
+  <si>
+    <t>42264.6302503897</t>
+  </si>
+  <si>
+    <t>44025.4826886383</t>
+  </si>
+  <si>
+    <t>44481.4687719655</t>
+  </si>
+  <si>
+    <t>44246.3986882078</t>
+  </si>
+  <si>
+    <t>42090.1732883123</t>
+  </si>
+  <si>
+    <t>42932.3971449613</t>
+  </si>
+  <si>
+    <t>43575</t>
+  </si>
+  <si>
+    <t>43510</t>
+  </si>
+  <si>
+    <t>43733</t>
+  </si>
+  <si>
+    <t>44241</t>
+  </si>
+  <si>
+    <t>44635</t>
+  </si>
+  <si>
+    <t>44836</t>
   </si>
   <si>
     <t>Description</t>
@@ -3954,6 +3972,108 @@
         <v>196</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3969,50 +4089,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
